--- a/2SK82/Sony_2SK82_list.xlsx
+++ b/2SK82/Sony_2SK82_list.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">2SK82_11</t>
   </si>
   <si>
-    <t xml:space="preserve">reserved gr</t>
+    <t xml:space="preserve">sold gr</t>
   </si>
   <si>
     <t xml:space="preserve">2SK82_12</t>
@@ -136,7 +136,7 @@
     <numFmt numFmtId="165" formatCode="0.00"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -179,6 +179,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <strike val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -222,7 +228,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -292,6 +298,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -314,8 +324,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C18" activeCellId="1" sqref="A34:C34 A18:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.2734375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1547,13 +1557,13 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="n">
+      <c r="B18" s="17" t="n">
         <v>-5.445</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="16" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1723,13 +1733,13 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="2" t="n">
+      <c r="B34" s="17" t="n">
         <v>-4.336</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="18" t="s">
         <v>18</v>
       </c>
     </row>
